--- a/biology/Médecine/Pneumoconiose_provoquée_par_la_poussière_de_silice/Pneumoconiose_provoquée_par_la_poussière_de_silice.xlsx
+++ b/biology/Médecine/Pneumoconiose_provoquée_par_la_poussière_de_silice/Pneumoconiose_provoquée_par_la_poussière_de_silice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pneumoconiose_provoqu%C3%A9e_par_la_poussi%C3%A8re_de_silice</t>
+          <t>Pneumoconiose_provoquée_par_la_poussière_de_silice</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une pneumoconiose provoquée par la poussière de silice soit reconnue comme maladie professionnelle.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pneumoconiose_provoqu%C3%A9e_par_la_poussi%C3%A8re_de_silice</t>
+          <t>Pneumoconiose_provoquée_par_la_poussière_de_silice</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Législation européenne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Directive UE2017/2398 du 12 décembre 2017 classe les poussières de silice comme agent cancérigène. Et elle révise les valeurs limites d'exposition (VLE) aux agents cancérigènes ou mutagènes pour rendre ces expositions plus contraignantes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Directive UE2017/2398 du 12 décembre 2017 classe les poussières de silice comme agent cancérigène. Et elle révise les valeurs limites d'exposition (VLE) aux agents cancérigènes ou mutagènes pour rendre ces expositions plus contraignantes.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pneumoconiose_provoqu%C3%A9e_par_la_poussi%C3%A8re_de_silice</t>
+          <t>Pneumoconiose_provoquée_par_la_poussière_de_silice</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Régime agricole
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pneumoconiose_provoquée_par_la_poussière_de_silice</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pneumoconiose_provoqu%C3%A9e_par_la_poussi%C3%A8re_de_silice</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
